--- a/ecg_statistics.xlsx
+++ b/ecg_statistics.xlsx
@@ -477,10 +477,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.788461538461538</v>
+        <v>0.8788461538461538</v>
       </c>
       <c r="B2" t="n">
-        <v>8.153846153846153</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -491,10 +491,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16.93269230769231</v>
+        <v>1.693269230769231</v>
       </c>
       <c r="B3" t="n">
-        <v>8.134615384615385</v>
+        <v>0.8134615384615385</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -505,10 +505,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>24.84615384615385</v>
+        <v>2.484615384615385</v>
       </c>
       <c r="B4" t="n">
-        <v>7.692307692307693</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -519,10 +519,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32.78846153846154</v>
+        <v>3.278846153846154</v>
       </c>
       <c r="B5" t="n">
-        <v>8.192307692307692</v>
+        <v>0.8192307692307692</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -533,10 +533,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>41.08653846153846</v>
+        <v>4.108653846153846</v>
       </c>
       <c r="B6" t="n">
-        <v>8.403846153846153</v>
+        <v>0.8403846153846154</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>49.26923076923077</v>
+        <v>4.926923076923077</v>
       </c>
       <c r="B7" t="n">
-        <v>7.961538461538462</v>
+        <v>0.7961538461538461</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -561,10 +561,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>57.10576923076923</v>
+        <v>5.710576923076923</v>
       </c>
       <c r="B8" t="n">
-        <v>7.711538461538462</v>
+        <v>0.7711538461538462</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -575,10 +575,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>65.04807692307692</v>
+        <v>6.504807692307693</v>
       </c>
       <c r="B9" t="n">
-        <v>8.173076923076923</v>
+        <v>0.8173076923076923</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -589,10 +589,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73.21153846153847</v>
+        <v>7.321153846153846</v>
       </c>
       <c r="B10" t="n">
-        <v>8.153846153846153</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -603,10 +603,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>81.13461538461539</v>
+        <v>8.113461538461538</v>
       </c>
       <c r="B11" t="n">
-        <v>7.692307692307693</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -617,10 +617,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>88.86538461538461</v>
+        <v>8.886538461538462</v>
       </c>
       <c r="B12" t="n">
-        <v>7.769230769230769</v>
+        <v>0.7769230769230769</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -631,10 +631,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96.67307692307692</v>
+        <v>9.667307692307693</v>
       </c>
       <c r="B13" t="n">
-        <v>7.846153846153846</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -645,10 +645,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104.4807692307692</v>
+        <v>10.44807692307692</v>
       </c>
       <c r="B14" t="n">
-        <v>7.769230769230769</v>
+        <v>0.7769230769230769</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -659,10 +659,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112.125</v>
+        <v>11.2125</v>
       </c>
       <c r="B15" t="n">
-        <v>7.519230769230769</v>
+        <v>0.7519230769230769</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -673,10 +673,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>119.4615384615385</v>
+        <v>11.94615384615385</v>
       </c>
       <c r="B16" t="n">
-        <v>7.153846153846154</v>
+        <v>0.7153846153846154</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -687,10 +687,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>126.7884615384615</v>
+        <v>12.67884615384615</v>
       </c>
       <c r="B17" t="n">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -701,10 +701,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>134.4230769230769</v>
+        <v>13.44230769230769</v>
       </c>
       <c r="B18" t="n">
-        <v>7.769230769230769</v>
+        <v>0.7769230769230769</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -715,10 +715,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>142.2692307692308</v>
+        <v>14.22692307692308</v>
       </c>
       <c r="B19" t="n">
-        <v>7.923076923076923</v>
+        <v>0.7923076923076923</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -729,10 +729,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>150.1057692307692</v>
+        <v>15.01057692307692</v>
       </c>
       <c r="B20" t="n">
-        <v>7.75</v>
+        <v>0.775</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -743,10 +743,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>157.6442307692308</v>
+        <v>15.76442307692308</v>
       </c>
       <c r="B21" t="n">
-        <v>7.326923076923077</v>
+        <v>0.7326923076923076</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -757,10 +757,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>164.9326923076923</v>
+        <v>16.49326923076923</v>
       </c>
       <c r="B22" t="n">
-        <v>7.25</v>
+        <v>0.725</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -771,10 +771,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>172.3365384615385</v>
+        <v>17.23365384615385</v>
       </c>
       <c r="B23" t="n">
-        <v>7.557692307692307</v>
+        <v>0.7557692307692307</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -785,10 +785,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>180.1153846153846</v>
+        <v>18.01153846153846</v>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -799,10 +799,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>188.1442307692308</v>
+        <v>18.81442307692308</v>
       </c>
       <c r="B25" t="n">
-        <v>8.057692307692308</v>
+        <v>0.8057692307692308</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -813,10 +813,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>196</v>
+        <v>19.6</v>
       </c>
       <c r="B26" t="n">
-        <v>7.653846153846154</v>
+        <v>0.7653846153846153</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -827,10 +827,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>203.7115384615385</v>
+        <v>20.37115384615385</v>
       </c>
       <c r="B27" t="n">
-        <v>7.769230769230769</v>
+        <v>0.7769230769230769</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -841,10 +841,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>211.5096153846154</v>
+        <v>21.15096153846154</v>
       </c>
       <c r="B28" t="n">
-        <v>7.826923076923077</v>
+        <v>0.7826923076923077</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -855,10 +855,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>219.4423076923077</v>
+        <v>21.94423076923077</v>
       </c>
       <c r="B29" t="n">
-        <v>8.038461538461538</v>
+        <v>0.8038461538461539</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -869,10 +869,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>227.3461538461538</v>
+        <v>22.73461538461538</v>
       </c>
       <c r="B30" t="n">
-        <v>7.769230769230769</v>
+        <v>0.7769230769230769</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -883,10 +883,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>234.8942307692308</v>
+        <v>23.48942307692308</v>
       </c>
       <c r="B31" t="n">
-        <v>7.326923076923077</v>
+        <v>0.7326923076923076</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -897,10 +897,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>242.4326923076923</v>
+        <v>24.24326923076923</v>
       </c>
       <c r="B32" t="n">
-        <v>7.75</v>
+        <v>0.775</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -911,10 +911,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>250.3653846153846</v>
+        <v>25.03653846153846</v>
       </c>
       <c r="B33" t="n">
-        <v>8.115384615384615</v>
+        <v>0.8115384615384615</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -925,10 +925,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>258.4807692307692</v>
+        <v>25.84807692307692</v>
       </c>
       <c r="B34" t="n">
-        <v>8.115384615384615</v>
+        <v>0.8115384615384615</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -939,10 +939,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>266.3076923076923</v>
+        <v>26.63076923076923</v>
       </c>
       <c r="B35" t="n">
-        <v>7.538461538461538</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -953,10 +953,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>273.5384615384615</v>
+        <v>27.35384615384615</v>
       </c>
       <c r="B36" t="n">
-        <v>6.923076923076923</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -967,10 +967,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>280.4230769230769</v>
+        <v>28.04230769230769</v>
       </c>
       <c r="B37" t="n">
-        <v>6.846153846153846</v>
+        <v>0.6846153846153846</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -981,10 +981,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>287.2019230769231</v>
+        <v>28.72019230769231</v>
       </c>
       <c r="B38" t="n">
-        <v>6.711538461538462</v>
+        <v>0.6711538461538461</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -995,10 +995,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>293.8846153846154</v>
+        <v>29.38846153846154</v>
       </c>
       <c r="B39" t="n">
-        <v>6.653846153846154</v>
+        <v>0.6653846153846154</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>300.4423076923077</v>
+        <v>30.04423076923077</v>
       </c>
       <c r="B40" t="n">
-        <v>6.461538461538462</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>307.0384615384615</v>
+        <v>30.70384615384615</v>
       </c>
       <c r="B41" t="n">
-        <v>6.730769230769231</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>313.8269230769231</v>
+        <v>31.38269230769231</v>
       </c>
       <c r="B42" t="n">
-        <v>6.846153846153846</v>
+        <v>0.6846153846153846</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
@@ -1051,10 +1051,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>320.8557692307692</v>
+        <v>32.08557692307692</v>
       </c>
       <c r="B43" t="n">
-        <v>7.211538461538462</v>
+        <v>0.7211538461538461</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>327.9519230769231</v>
+        <v>32.79519230769231</v>
       </c>
       <c r="B44" t="n">
-        <v>6.980769230769231</v>
+        <v>0.698076923076923</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>335.2115384615385</v>
+        <v>33.52115384615384</v>
       </c>
       <c r="B45" t="n">
-        <v>7.538461538461538</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
@@ -1093,10 +1093,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>343.0096153846154</v>
+        <v>34.30096153846154</v>
       </c>
       <c r="B46" t="n">
-        <v>8.057692307692308</v>
+        <v>0.8057692307692308</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
@@ -1109,19 +1109,19 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>7.887197348463569</v>
+        <v>78.8719734846357</v>
       </c>
       <c r="D47" t="n">
-        <v>6.461538461538462</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="E47" t="n">
-        <v>8.403846153846153</v>
+        <v>0.8403846153846154</v>
       </c>
       <c r="F47" t="n">
-        <v>7.607264957264959</v>
+        <v>0.7607264957264958</v>
       </c>
       <c r="G47" t="n">
-        <v>7.75</v>
+        <v>0.775</v>
       </c>
       <c r="H47" t="n">
         <v>46</v>
